--- a/test data.xlsx
+++ b/test data.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">N50043938</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">Sri Lankan</t>
@@ -281,7 +281,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
